--- a/data/2024-25_NBA_Regular_Season_Updated_daily.xlsx
+++ b/data/2024-25_NBA_Regular_Season_Updated_daily.xlsx
@@ -1711,10 +1711,10 @@
     <t>PG,C</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG</t>
-  </si>
-  <si>
-    <t>PF</t>
   </si>
   <si>
     <t>DEN</t>
@@ -9977,7 +9977,7 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D33" t="s">
         <v>568</v>
@@ -17867,7 +17867,7 @@
         <v>190</v>
       </c>
       <c r="C174" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D174" t="s">
         <v>590</v>
@@ -18595,7 +18595,7 @@
         <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D187" t="s">
         <v>588</v>
@@ -18875,7 +18875,7 @@
         <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D192" t="s">
         <v>581</v>
@@ -21339,7 +21339,7 @@
         <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D236" t="s">
         <v>587</v>
@@ -22624,7 +22624,7 @@
         <v>275</v>
       </c>
       <c r="C259" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D259" t="s">
         <v>567</v>
@@ -24015,7 +24015,7 @@
         <v>300</v>
       </c>
       <c r="C284" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D284" t="s">
         <v>585</v>
@@ -24183,7 +24183,7 @@
         <v>303</v>
       </c>
       <c r="C287" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D287" t="s">
         <v>569</v>
@@ -24239,7 +24239,7 @@
         <v>304</v>
       </c>
       <c r="C288" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D288" t="s">
         <v>588</v>
@@ -24967,7 +24967,7 @@
         <v>317</v>
       </c>
       <c r="C301" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D301" t="s">
         <v>571</v>
@@ -25079,7 +25079,7 @@
         <v>319</v>
       </c>
       <c r="C303" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D303" t="s">
         <v>583</v>
@@ -25975,7 +25975,7 @@
         <v>335</v>
       </c>
       <c r="C319" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D319" t="s">
         <v>584</v>
@@ -26364,7 +26364,7 @@
         <v>342</v>
       </c>
       <c r="C326" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D326" t="s">
         <v>576</v>
@@ -26753,7 +26753,7 @@
         <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D333" t="s">
         <v>586</v>
@@ -27201,7 +27201,7 @@
         <v>357</v>
       </c>
       <c r="C341" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D341" t="s">
         <v>591</v>
@@ -27425,7 +27425,7 @@
         <v>361</v>
       </c>
       <c r="C345" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D345" t="s">
         <v>584</v>
@@ -27593,7 +27593,7 @@
         <v>364</v>
       </c>
       <c r="C348" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D348" t="s">
         <v>578</v>
@@ -27873,7 +27873,7 @@
         <v>369</v>
       </c>
       <c r="C353" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D353" t="s">
         <v>590</v>
@@ -27932,7 +27932,7 @@
         <v>557</v>
       </c>
       <c r="D354" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E354" t="s">
         <v>631</v>
@@ -28433,7 +28433,7 @@
         <v>379</v>
       </c>
       <c r="C363" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D363" t="s">
         <v>584</v>
@@ -28489,7 +28489,7 @@
         <v>379</v>
       </c>
       <c r="C364" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D364" t="s">
         <v>584</v>
@@ -28878,7 +28878,7 @@
         <v>386</v>
       </c>
       <c r="C371" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D371" t="s">
         <v>568</v>
@@ -29270,7 +29270,7 @@
         <v>393</v>
       </c>
       <c r="C378" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D378" t="s">
         <v>595</v>
@@ -30166,7 +30166,7 @@
         <v>408</v>
       </c>
       <c r="C394" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D394" t="s">
         <v>580</v>
@@ -30443,7 +30443,7 @@
         <v>413</v>
       </c>
       <c r="C399" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D399" t="s">
         <v>584</v>
@@ -30667,7 +30667,7 @@
         <v>417</v>
       </c>
       <c r="C403" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D403" t="s">
         <v>585</v>
@@ -31053,7 +31053,7 @@
         <v>424</v>
       </c>
       <c r="C410" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D410" t="s">
         <v>585</v>
@@ -31218,7 +31218,7 @@
         <v>427</v>
       </c>
       <c r="C413" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D413" t="s">
         <v>593</v>
@@ -31554,7 +31554,7 @@
         <v>433</v>
       </c>
       <c r="C419" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D419" t="s">
         <v>592</v>
@@ -31666,7 +31666,7 @@
         <v>435</v>
       </c>
       <c r="C421" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D421" t="s">
         <v>583</v>
@@ -31834,7 +31834,7 @@
         <v>438</v>
       </c>
       <c r="C424" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D424" t="s">
         <v>587</v>
@@ -32055,7 +32055,7 @@
         <v>442</v>
       </c>
       <c r="C428" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D428" t="s">
         <v>567</v>
@@ -32111,7 +32111,7 @@
         <v>443</v>
       </c>
       <c r="C429" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D429" t="s">
         <v>570</v>
@@ -32332,7 +32332,7 @@
         <v>447</v>
       </c>
       <c r="C433" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D433" t="s">
         <v>580</v>
@@ -32444,7 +32444,7 @@
         <v>449</v>
       </c>
       <c r="C435" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D435" t="s">
         <v>574</v>
@@ -32556,7 +32556,7 @@
         <v>451</v>
       </c>
       <c r="C437" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D437" t="s">
         <v>588</v>
@@ -32724,7 +32724,7 @@
         <v>454</v>
       </c>
       <c r="C440" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D440" t="s">
         <v>593</v>
@@ -32836,7 +32836,7 @@
         <v>456</v>
       </c>
       <c r="C442" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D442" t="s">
         <v>571</v>
@@ -33284,7 +33284,7 @@
         <v>464</v>
       </c>
       <c r="C450" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D450" t="s">
         <v>577</v>
@@ -33611,7 +33611,7 @@
         <v>470</v>
       </c>
       <c r="C456" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D456" t="s">
         <v>568</v>
@@ -33723,7 +33723,7 @@
         <v>472</v>
       </c>
       <c r="C458" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D458" t="s">
         <v>579</v>
@@ -33779,7 +33779,7 @@
         <v>473</v>
       </c>
       <c r="C459" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D459" t="s">
         <v>591</v>
@@ -33947,7 +33947,7 @@
         <v>476</v>
       </c>
       <c r="C462" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D462" t="s">
         <v>580</v>
@@ -34115,7 +34115,7 @@
         <v>479</v>
       </c>
       <c r="C465" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D465" t="s">
         <v>593</v>
@@ -34610,7 +34610,7 @@
         <v>488</v>
       </c>
       <c r="C474" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D474" t="s">
         <v>587</v>
@@ -34778,7 +34778,7 @@
         <v>491</v>
       </c>
       <c r="C477" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D477" t="s">
         <v>584</v>
@@ -34834,7 +34834,7 @@
         <v>491</v>
       </c>
       <c r="C478" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D478" t="s">
         <v>584</v>
@@ -35273,7 +35273,7 @@
         <v>499</v>
       </c>
       <c r="C486" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D486" t="s">
         <v>592</v>
@@ -35385,7 +35385,7 @@
         <v>501</v>
       </c>
       <c r="C488" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D488" t="s">
         <v>579</v>
@@ -35494,7 +35494,7 @@
         <v>503</v>
       </c>
       <c r="C490" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D490" t="s">
         <v>574</v>
@@ -35715,7 +35715,7 @@
         <v>507</v>
       </c>
       <c r="C494" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D494" t="s">
         <v>576</v>
@@ -35883,7 +35883,7 @@
         <v>509</v>
       </c>
       <c r="C497" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D497" t="s">
         <v>567</v>
@@ -36045,7 +36045,7 @@
         <v>512</v>
       </c>
       <c r="C500" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D500" t="s">
         <v>588</v>
@@ -36263,7 +36263,7 @@
         <v>516</v>
       </c>
       <c r="C504" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D504" t="s">
         <v>588</v>
@@ -36543,7 +36543,7 @@
         <v>521</v>
       </c>
       <c r="C509" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D509" t="s">
         <v>576</v>
@@ -36708,7 +36708,7 @@
         <v>524</v>
       </c>
       <c r="C512" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D512" t="s">
         <v>591</v>
@@ -37477,7 +37477,7 @@
         <v>538</v>
       </c>
       <c r="C526" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D526" t="s">
         <v>578</v>
@@ -37804,7 +37804,7 @@
         <v>544</v>
       </c>
       <c r="C532" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D532" t="s">
         <v>580</v>
@@ -38128,7 +38128,7 @@
         <v>550</v>
       </c>
       <c r="C538" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D538" t="s">
         <v>578</v>
